--- a/trunk/3get33/3get33/Game Info/GaantChart.xlsx
+++ b/trunk/3get33/3get33/Game Info/GaantChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24855" windowHeight="12240"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>CS340 Project - Gaant Chart</t>
   </si>
@@ -75,30 +75,12 @@
     <t>Generating content from the Level Files</t>
   </si>
   <si>
-    <t>Basic Gameplay</t>
-  </si>
-  <si>
     <t>Displaying score Etc</t>
   </si>
   <si>
     <t>Implementing Diff weapons</t>
   </si>
   <si>
-    <t>Level editor (maybe) 1</t>
-  </si>
-  <si>
-    <t>Level editor (maybe) 2</t>
-  </si>
-  <si>
-    <t>Level editor (maybe) 3</t>
-  </si>
-  <si>
-    <t>Level editor (maybe) 4</t>
-  </si>
-  <si>
-    <t>Level editor (maybe) 5</t>
-  </si>
-  <si>
     <t>Player Ship subclass basic</t>
   </si>
   <si>
@@ -111,7 +93,34 @@
     <t>All Relative Images created and polished</t>
   </si>
   <si>
-    <t>TBD based on time</t>
+    <t>Level editor GUI</t>
+  </si>
+  <si>
+    <t>Level editor Options</t>
+  </si>
+  <si>
+    <t>Level editor saving levls</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Jenny,Karan</t>
+  </si>
+  <si>
+    <t>Karan,Jenny,Todd</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Gameplay implementation</t>
+  </si>
+  <si>
+    <t>Could Be scrapped</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,6 +508,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ref="D5:D14" si="0">B5+C5</f>
         <v>40086</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -513,10 +523,11 @@
         <v>40079</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>40086</v>
+        <f t="shared" si="0"/>
+        <v>40087</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -524,52 +535,145 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40079</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>40086</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>40079</v>
+        <v>40085</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>40086</v>
+        <f t="shared" si="0"/>
+        <v>40087</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="1">
+        <v>40084</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>40088</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="1">
+        <v>40088</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>40092</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="1">
+        <v>40088</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>40095</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40088</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>40095</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40088</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>40095</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40088</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>40095</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -577,79 +681,233 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" s="1">
+        <v>40095</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15+C15</f>
+        <v>40102</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="1">
+        <v>40095</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D26" si="1">B16+C16</f>
+        <v>40102</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17" s="1">
+        <v>40102</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>40109</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>12</v>
       </c>
+      <c r="B18" s="1">
+        <v>40111</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>40117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40105</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>40110</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40109</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>40117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40118</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>40146</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40118</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>40150</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40095</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>40116</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>40095</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>40116</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40095</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>40116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40095</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>40116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/3get33/3get33/Game Info/GaantChart.xlsx
+++ b/trunk/3get33/3get33/Game Info/GaantChart.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,10 +736,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>40111</v>
+        <v>40109</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
@@ -790,14 +790,14 @@
         <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>40118</v>
+        <v>40119</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>40146</v>
+        <v>40150</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -808,10 +808,10 @@
         <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>40118</v>
+        <v>40119</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
